--- a/src/assets/packages.xlsx
+++ b/src/assets/packages.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>RIGHT-Rigester packahes</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>picked_at</t>
+  </si>
+  <si>
+    <t>Delivered</t>
   </si>
 </sst>
 </file>
@@ -343,9 +346,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="[$-1000000]00000"/>
-    <numFmt numFmtId="169" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
-    <numFmt numFmtId="170" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1000000]00000"/>
+    <numFmt numFmtId="165" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -450,18 +453,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -481,8 +484,8 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -775,7 +778,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I17" sqref="I17:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,7 +817,9 @@
       <c r="H1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -842,7 +847,9 @@
       <c r="H2" s="7">
         <v>43468.581493055557</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -870,7 +877,9 @@
       <c r="H3" s="7">
         <v>43466.560694444444</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -978,7 +987,9 @@
       <c r="H7" s="7">
         <v>43466.561018518521</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1030,7 +1041,9 @@
       <c r="H9" s="7">
         <v>43466</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1058,7 +1071,9 @@
       <c r="H10" s="7">
         <v>43466.560034722221</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1084,7 +1099,9 @@
       <c r="H11" s="7">
         <v>43466</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1112,7 +1129,9 @@
       <c r="H12" s="7">
         <v>43466.462581018517</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1192,7 +1211,9 @@
       <c r="H15" s="7">
         <v>43466.468622685185</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1246,7 +1267,9 @@
       <c r="H17" s="7">
         <v>43466</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1274,7 +1297,9 @@
       <c r="H18" s="7">
         <v>43466.469976851855</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1302,7 +1327,9 @@
       <c r="H19" s="7">
         <v>43466.580625000002</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1330,7 +1357,9 @@
       <c r="H20" s="7">
         <v>43466.557569444441</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1358,7 +1387,9 @@
       <c r="H21" s="7">
         <v>43466.561180555553</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1386,7 +1417,9 @@
       <c r="H22" s="7">
         <v>43468.418912037036</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1414,7 +1447,9 @@
       <c r="H23" s="7">
         <v>43466.575914351852</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1442,7 +1477,9 @@
       <c r="H24" s="7">
         <v>43466.476400462961</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1470,7 +1507,9 @@
       <c r="H25" s="7">
         <v>43466.560150462959</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1498,7 +1537,9 @@
       <c r="H26" s="7">
         <v>43466.581724537034</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
   </sheetData>
